--- a/Weight.xlsx
+++ b/Weight.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjovincent/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjovincent/Desktop/GitHubTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C75F1D-3CA7-F54A-8673-3B8EE6E11DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D629E4B0-5968-E041-97D6-7C10DB035A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{5E0570D3-7F6E-3444-8CA2-D50C20194947}"/>
   </bookViews>
@@ -381,6 +381,9 @@
                 <c:pt idx="19">
                   <c:v>95.6</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1457,7 +1460,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1596,6 +1599,9 @@
       <c r="A24" s="1">
         <v>44873</v>
       </c>
+      <c r="B24">
+        <v>95.7</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
